--- a/PaymentUsingWallet.xlsx
+++ b/PaymentUsingWallet.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SoapData\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50B0F582-98CD-4FBA-8C25-18FC009EE3CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14235"/>
+    <workbookView xWindow="28680" yWindow="-3945" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PaymentUsingWallet" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Working" sheetId="3" r:id="rId3"/>
+    <sheet name="PaymentUsingWallet-NotWorking" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2172" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2204" uniqueCount="469">
   <si>
     <t>TestNotes</t>
   </si>
@@ -1438,7 +1440,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1781,70 +1783,70 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG68"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AG60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="Y1" sqref="Y1:Y1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33:XFD37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="37.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="13.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.26953125" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.1796875" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="23.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="43.5703125" style="1" customWidth="1"/>
-    <col min="32" max="32" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="23.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="17.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="23.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="16.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="43.54296875" style="1" customWidth="1"/>
+    <col min="32" max="32" width="7.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="5.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="23.1796875" style="1" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="16.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="12.26953125" style="1" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="14.81640625" style="1" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="12.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="11.7265625" style="1" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="10.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="17.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="14.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="12.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="11.1796875" style="1" bestFit="1" customWidth="1"/>
     <col min="51" max="51" width="105" style="1" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="53" max="16384" width="9.140625" style="1"/>
+    <col min="52" max="52" width="7.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="53" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1942,7 +1944,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>329</v>
       </c>
@@ -1996,7 +1998,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>331</v>
       </c>
@@ -2049,7 +2051,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>332</v>
       </c>
@@ -2102,7 +2104,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>333</v>
       </c>
@@ -2155,7 +2157,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>337</v>
       </c>
@@ -2208,7 +2210,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>339</v>
       </c>
@@ -2261,7 +2263,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>340</v>
       </c>
@@ -2314,7 +2316,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>341</v>
       </c>
@@ -2367,7 +2369,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>345</v>
       </c>
@@ -2462,7 +2464,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>346</v>
       </c>
@@ -2515,7 +2517,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>347</v>
       </c>
@@ -2610,7 +2612,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>348</v>
       </c>
@@ -2663,7 +2665,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>349</v>
       </c>
@@ -2758,7 +2760,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>350</v>
       </c>
@@ -2811,7 +2813,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>351</v>
       </c>
@@ -2906,7 +2908,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>352</v>
       </c>
@@ -2959,7 +2961,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>374</v>
       </c>
@@ -3012,7 +3014,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>375</v>
       </c>
@@ -3068,7 +3070,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>376</v>
       </c>
@@ -3121,7 +3123,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>377</v>
       </c>
@@ -3177,7 +3179,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>382</v>
       </c>
@@ -3230,7 +3232,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>383</v>
       </c>
@@ -3286,7 +3288,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>384</v>
       </c>
@@ -3339,7 +3341,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>385</v>
       </c>
@@ -3395,7 +3397,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>410</v>
       </c>
@@ -3418,7 +3420,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>411</v>
       </c>
@@ -3441,7 +3443,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>412</v>
       </c>
@@ -3464,7 +3466,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>413</v>
       </c>
@@ -3515,7 +3517,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>414</v>
       </c>
@@ -3565,7 +3567,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>415</v>
       </c>
@@ -3615,7 +3617,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>416</v>
       </c>
@@ -3665,9 +3667,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>54</v>
@@ -3676,7 +3678,7 @@
         <v>55</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="E33" s="1">
         <v>495</v>
@@ -3703,28 +3705,22 @@
         <v>468</v>
       </c>
       <c r="Z33" s="3"/>
-      <c r="AB33" s="1" t="s">
-        <v>328</v>
-      </c>
       <c r="AC33" s="1">
         <v>576321111</v>
       </c>
       <c r="AD33" s="1">
-        <v>10003</v>
+        <v>50052</v>
       </c>
       <c r="AE33" s="5" t="s">
-        <v>458</v>
+        <v>428</v>
       </c>
       <c r="AF33" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AG33" s="1" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>54</v>
@@ -3733,7 +3729,7 @@
         <v>55</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="E34" s="1">
         <v>495</v>
@@ -3759,29 +3755,22 @@
       <c r="Y34" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="Z34" s="3"/>
-      <c r="AB34" s="1" t="s">
-        <v>328</v>
-      </c>
       <c r="AC34" s="1">
-        <v>576321111</v>
+        <v>576332222</v>
       </c>
       <c r="AD34" s="1">
-        <v>10003</v>
+        <v>50052</v>
       </c>
       <c r="AE34" s="5" t="s">
-        <v>459</v>
+        <v>428</v>
       </c>
       <c r="AF34" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AG34" s="1" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>54</v>
@@ -3790,7 +3779,7 @@
         <v>55</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E35" s="1">
         <v>495</v>
@@ -3816,28 +3805,22 @@
       <c r="Y35" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="AB35" s="1" t="s">
-        <v>334</v>
-      </c>
       <c r="AC35" s="1">
-        <v>576332222</v>
+        <v>576343333</v>
       </c>
       <c r="AD35" s="1">
-        <v>10003</v>
+        <v>50052</v>
       </c>
       <c r="AE35" s="5" t="s">
-        <v>459</v>
+        <v>428</v>
       </c>
       <c r="AF35" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AG35" s="1" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>54</v>
@@ -3846,7 +3829,7 @@
         <v>55</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="E36" s="1">
         <v>495</v>
@@ -3872,28 +3855,22 @@
       <c r="Y36" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="AB36" s="1" t="s">
-        <v>335</v>
-      </c>
       <c r="AC36" s="1">
-        <v>576343333</v>
+        <v>576354444</v>
       </c>
       <c r="AD36" s="1">
-        <v>10003</v>
+        <v>50052</v>
       </c>
       <c r="AE36" s="5" t="s">
-        <v>459</v>
+        <v>428</v>
       </c>
       <c r="AF36" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AG36" s="1" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
-        <v>422</v>
+        <v>429</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>54</v>
@@ -3902,7 +3879,7 @@
         <v>55</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="E37" s="1">
         <v>495</v>
@@ -3928,28 +3905,23 @@
       <c r="Y37" s="1" t="s">
         <v>468</v>
       </c>
+      <c r="Z37" s="3"/>
       <c r="AB37" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="AC37" s="1">
-        <v>576354444</v>
+        <v>328</v>
       </c>
       <c r="AD37" s="1">
-        <v>10003</v>
+        <v>50053</v>
       </c>
       <c r="AE37" s="5" t="s">
-        <v>459</v>
+        <v>433</v>
       </c>
       <c r="AF37" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AG37" s="1" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>54</v>
@@ -3958,7 +3930,7 @@
         <v>55</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="E38" s="1">
         <v>495</v>
@@ -3984,23 +3956,22 @@
       <c r="Y38" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="Z38" s="3"/>
-      <c r="AC38" s="1">
-        <v>576321111</v>
+      <c r="AB38" s="1" t="s">
+        <v>334</v>
       </c>
       <c r="AD38" s="1">
-        <v>50052</v>
+        <v>50053</v>
       </c>
       <c r="AE38" s="5" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="AF38" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>54</v>
@@ -4009,7 +3980,7 @@
         <v>55</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="E39" s="1">
         <v>495</v>
@@ -4035,22 +4006,22 @@
       <c r="Y39" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="AC39" s="1">
-        <v>576332222</v>
+      <c r="AB39" s="1" t="s">
+        <v>335</v>
       </c>
       <c r="AD39" s="1">
-        <v>50052</v>
+        <v>50053</v>
       </c>
       <c r="AE39" s="5" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="AF39" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>54</v>
@@ -4059,7 +4030,7 @@
         <v>55</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="E40" s="1">
         <v>495</v>
@@ -4085,22 +4056,22 @@
       <c r="Y40" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="AC40" s="1">
-        <v>576343333</v>
+      <c r="AB40" s="1" t="s">
+        <v>336</v>
       </c>
       <c r="AD40" s="1">
-        <v>50052</v>
+        <v>50053</v>
       </c>
       <c r="AE40" s="5" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="AF40" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>54</v>
@@ -4109,13 +4080,10 @@
         <v>55</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="E41" s="1">
         <v>495</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="H41" s="2">
         <v>0</v>
@@ -4135,22 +4103,26 @@
       <c r="Y41" s="1" t="s">
         <v>468</v>
       </c>
+      <c r="Z41" s="3"/>
+      <c r="AB41" s="1" t="s">
+        <v>328</v>
+      </c>
       <c r="AC41" s="1">
-        <v>576354444</v>
+        <v>576321111</v>
       </c>
       <c r="AD41" s="1">
-        <v>50052</v>
-      </c>
-      <c r="AE41" s="5" t="s">
-        <v>428</v>
+        <v>10081</v>
+      </c>
+      <c r="AE41" s="1" t="s">
+        <v>98</v>
       </c>
       <c r="AF41" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>54</v>
@@ -4159,13 +4131,10 @@
         <v>55</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="E42" s="1">
         <v>495</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="H42" s="2">
         <v>0</v>
@@ -4185,23 +4154,25 @@
       <c r="Y42" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="Z42" s="3"/>
       <c r="AB42" s="1" t="s">
-        <v>328</v>
+        <v>334</v>
+      </c>
+      <c r="AC42" s="1">
+        <v>576332222</v>
       </c>
       <c r="AD42" s="1">
-        <v>50053</v>
-      </c>
-      <c r="AE42" s="5" t="s">
-        <v>433</v>
+        <v>10081</v>
+      </c>
+      <c r="AE42" s="1" t="s">
+        <v>98</v>
       </c>
       <c r="AF42" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>54</v>
@@ -4210,13 +4181,10 @@
         <v>55</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="E43" s="1">
         <v>495</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="H43" s="2">
         <v>0</v>
@@ -4237,21 +4205,24 @@
         <v>468</v>
       </c>
       <c r="AB43" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
+      </c>
+      <c r="AC43" s="1">
+        <v>576343333</v>
       </c>
       <c r="AD43" s="1">
-        <v>50053</v>
-      </c>
-      <c r="AE43" s="5" t="s">
-        <v>433</v>
+        <v>10081</v>
+      </c>
+      <c r="AE43" s="1" t="s">
+        <v>98</v>
       </c>
       <c r="AF43" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>54</v>
@@ -4260,13 +4231,10 @@
         <v>55</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="E44" s="1">
         <v>495</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="H44" s="2">
         <v>0</v>
@@ -4287,21 +4255,24 @@
         <v>468</v>
       </c>
       <c r="AB44" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
+      </c>
+      <c r="AC44" s="1">
+        <v>576354444</v>
       </c>
       <c r="AD44" s="1">
-        <v>50053</v>
-      </c>
-      <c r="AE44" s="5" t="s">
-        <v>433</v>
+        <v>10081</v>
+      </c>
+      <c r="AE44" s="1" t="s">
+        <v>98</v>
       </c>
       <c r="AF44" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>54</v>
@@ -4310,7 +4281,7 @@
         <v>55</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="E45" s="1">
         <v>495</v>
@@ -4318,9 +4289,7 @@
       <c r="G45" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H45" s="2">
-        <v>0</v>
-      </c>
+      <c r="H45" s="2"/>
       <c r="I45" s="2">
         <v>10</v>
       </c>
@@ -4336,22 +4305,26 @@
       <c r="Y45" s="1" t="s">
         <v>468</v>
       </c>
+      <c r="Z45" s="3"/>
       <c r="AB45" s="1" t="s">
-        <v>336</v>
+        <v>328</v>
+      </c>
+      <c r="AC45" s="1">
+        <v>576321111</v>
       </c>
       <c r="AD45" s="1">
-        <v>50053</v>
-      </c>
-      <c r="AE45" s="5" t="s">
-        <v>433</v>
+        <v>10081</v>
+      </c>
+      <c r="AE45" s="1" t="s">
+        <v>98</v>
       </c>
       <c r="AF45" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>54</v>
@@ -4360,14 +4333,15 @@
         <v>55</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="E46" s="1">
         <v>495</v>
       </c>
-      <c r="H46" s="2">
-        <v>0</v>
-      </c>
+      <c r="G46" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H46" s="2"/>
       <c r="I46" s="2">
         <v>10</v>
       </c>
@@ -4383,12 +4357,11 @@
       <c r="Y46" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="Z46" s="3"/>
       <c r="AB46" s="1" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="AC46" s="1">
-        <v>576321111</v>
+        <v>576332222</v>
       </c>
       <c r="AD46" s="1">
         <v>10081</v>
@@ -4400,9 +4373,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>54</v>
@@ -4411,14 +4384,15 @@
         <v>55</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="E47" s="1">
         <v>495</v>
       </c>
-      <c r="H47" s="2">
-        <v>0</v>
-      </c>
+      <c r="G47" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H47" s="2"/>
       <c r="I47" s="2">
         <v>10</v>
       </c>
@@ -4435,10 +4409,10 @@
         <v>468</v>
       </c>
       <c r="AB47" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AC47" s="1">
-        <v>576332222</v>
+        <v>576343333</v>
       </c>
       <c r="AD47" s="1">
         <v>10081</v>
@@ -4450,9 +4424,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="48" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>54</v>
@@ -4461,14 +4435,15 @@
         <v>55</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="E48" s="1">
         <v>495</v>
       </c>
-      <c r="H48" s="2">
-        <v>0</v>
-      </c>
+      <c r="G48" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H48" s="2"/>
       <c r="I48" s="2">
         <v>10</v>
       </c>
@@ -4485,10 +4460,10 @@
         <v>468</v>
       </c>
       <c r="AB48" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AC48" s="1">
-        <v>576343333</v>
+        <v>576354444</v>
       </c>
       <c r="AD48" s="1">
         <v>10081</v>
@@ -4500,9 +4475,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="49" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>54</v>
@@ -4511,19 +4486,19 @@
         <v>55</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="E49" s="1">
         <v>495</v>
       </c>
+      <c r="G49" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="H49" s="2">
         <v>0</v>
       </c>
       <c r="I49" s="2">
         <v>10</v>
-      </c>
-      <c r="J49" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="K49" s="1" t="s">
         <v>35</v>
@@ -4534,25 +4509,26 @@
       <c r="Y49" s="1" t="s">
         <v>468</v>
       </c>
+      <c r="Z49" s="3"/>
       <c r="AB49" s="1" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="AC49" s="1">
-        <v>576354444</v>
+        <v>576321111</v>
       </c>
       <c r="AD49" s="1">
-        <v>10081</v>
+        <v>10005</v>
       </c>
       <c r="AE49" s="1" t="s">
-        <v>98</v>
+        <v>162</v>
       </c>
       <c r="AF49" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="50" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>54</v>
@@ -4561,7 +4537,7 @@
         <v>55</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="E50" s="1">
         <v>495</v>
@@ -4569,12 +4545,11 @@
       <c r="G50" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H50" s="2"/>
+      <c r="H50" s="2">
+        <v>0</v>
+      </c>
       <c r="I50" s="2">
         <v>10</v>
-      </c>
-      <c r="J50" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="K50" s="1" t="s">
         <v>35</v>
@@ -4585,26 +4560,25 @@
       <c r="Y50" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="Z50" s="3"/>
       <c r="AB50" s="1" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="AC50" s="1">
-        <v>576321111</v>
+        <v>576332222</v>
       </c>
       <c r="AD50" s="1">
-        <v>10081</v>
+        <v>10005</v>
       </c>
       <c r="AE50" s="1" t="s">
-        <v>98</v>
+        <v>162</v>
       </c>
       <c r="AF50" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="51" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>54</v>
@@ -4613,7 +4587,7 @@
         <v>55</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="E51" s="1">
         <v>495</v>
@@ -4621,12 +4595,11 @@
       <c r="G51" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H51" s="2"/>
+      <c r="H51" s="2">
+        <v>0</v>
+      </c>
       <c r="I51" s="2">
         <v>10</v>
-      </c>
-      <c r="J51" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="K51" s="1" t="s">
         <v>35</v>
@@ -4638,24 +4611,24 @@
         <v>468</v>
       </c>
       <c r="AB51" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AC51" s="1">
-        <v>576332222</v>
+        <v>576343333</v>
       </c>
       <c r="AD51" s="1">
-        <v>10081</v>
+        <v>10005</v>
       </c>
       <c r="AE51" s="1" t="s">
-        <v>98</v>
+        <v>162</v>
       </c>
       <c r="AF51" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="52" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>54</v>
@@ -4664,7 +4637,7 @@
         <v>55</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="E52" s="1">
         <v>495</v>
@@ -4672,12 +4645,11 @@
       <c r="G52" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H52" s="2"/>
+      <c r="H52" s="2">
+        <v>0</v>
+      </c>
       <c r="I52" s="2">
         <v>10</v>
-      </c>
-      <c r="J52" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="K52" s="1" t="s">
         <v>35</v>
@@ -4689,24 +4661,24 @@
         <v>468</v>
       </c>
       <c r="AB52" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AC52" s="1">
-        <v>576343333</v>
+        <v>576354444</v>
       </c>
       <c r="AD52" s="1">
-        <v>10081</v>
+        <v>10005</v>
       </c>
       <c r="AE52" s="1" t="s">
-        <v>98</v>
+        <v>162</v>
       </c>
       <c r="AF52" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="53" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>54</v>
@@ -4715,7 +4687,7 @@
         <v>55</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="E53" s="1">
         <v>495</v>
@@ -4723,10 +4695,10 @@
       <c r="G53" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H53" s="2"/>
-      <c r="I53" s="2">
-        <v>10</v>
-      </c>
+      <c r="H53" s="2">
+        <v>0</v>
+      </c>
+      <c r="I53" s="2"/>
       <c r="J53" s="1" t="s">
         <v>34</v>
       </c>
@@ -4739,25 +4711,26 @@
       <c r="Y53" s="1" t="s">
         <v>468</v>
       </c>
+      <c r="Z53" s="3"/>
       <c r="AB53" s="1" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="AC53" s="1">
-        <v>576354444</v>
+        <v>576321111</v>
       </c>
       <c r="AD53" s="1">
-        <v>10081</v>
+        <v>10056</v>
       </c>
       <c r="AE53" s="1" t="s">
-        <v>98</v>
+        <v>143</v>
       </c>
       <c r="AF53" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="54" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>54</v>
@@ -4766,7 +4739,7 @@
         <v>55</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="E54" s="1">
         <v>495</v>
@@ -4777,8 +4750,9 @@
       <c r="H54" s="2">
         <v>0</v>
       </c>
-      <c r="I54" s="2">
-        <v>10</v>
+      <c r="I54" s="2"/>
+      <c r="J54" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="K54" s="1" t="s">
         <v>35</v>
@@ -4789,26 +4763,25 @@
       <c r="Y54" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="Z54" s="3"/>
       <c r="AB54" s="1" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="AC54" s="1">
-        <v>576321111</v>
+        <v>576332222</v>
       </c>
       <c r="AD54" s="1">
-        <v>10005</v>
+        <v>10056</v>
       </c>
       <c r="AE54" s="1" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="AF54" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="55" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>54</v>
@@ -4817,7 +4790,7 @@
         <v>55</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="E55" s="1">
         <v>495</v>
@@ -4828,8 +4801,9 @@
       <c r="H55" s="2">
         <v>0</v>
       </c>
-      <c r="I55" s="2">
-        <v>10</v>
+      <c r="I55" s="2"/>
+      <c r="J55" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="K55" s="1" t="s">
         <v>35</v>
@@ -4841,24 +4815,24 @@
         <v>468</v>
       </c>
       <c r="AB55" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AC55" s="1">
-        <v>576332222</v>
+        <v>576343333</v>
       </c>
       <c r="AD55" s="1">
-        <v>10005</v>
+        <v>10056</v>
       </c>
       <c r="AE55" s="1" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="AF55" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="56" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>54</v>
@@ -4867,7 +4841,7 @@
         <v>55</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="E56" s="1">
         <v>495</v>
@@ -4878,8 +4852,9 @@
       <c r="H56" s="2">
         <v>0</v>
       </c>
-      <c r="I56" s="2">
-        <v>10</v>
+      <c r="I56" s="2"/>
+      <c r="J56" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="K56" s="1" t="s">
         <v>35</v>
@@ -4891,24 +4866,24 @@
         <v>468</v>
       </c>
       <c r="AB56" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AC56" s="1">
-        <v>576343333</v>
+        <v>576354444</v>
       </c>
       <c r="AD56" s="1">
-        <v>10005</v>
+        <v>10056</v>
       </c>
       <c r="AE56" s="1" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="AF56" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="57" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>54</v>
@@ -4917,7 +4892,7 @@
         <v>55</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="E57" s="1">
         <v>495</v>
@@ -4931,8 +4906,8 @@
       <c r="I57" s="2">
         <v>10</v>
       </c>
-      <c r="K57" s="1" t="s">
-        <v>35</v>
+      <c r="J57" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="V57" s="1">
         <v>22201</v>
@@ -4940,25 +4915,26 @@
       <c r="Y57" s="1" t="s">
         <v>468</v>
       </c>
+      <c r="Z57" s="3"/>
       <c r="AB57" s="1" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="AC57" s="1">
-        <v>576354444</v>
+        <v>576321111</v>
       </c>
       <c r="AD57" s="1">
-        <v>10005</v>
+        <v>10056</v>
       </c>
       <c r="AE57" s="1" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="AF57" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="58" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>54</v>
@@ -4967,7 +4943,7 @@
         <v>55</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="E58" s="1">
         <v>495</v>
@@ -4978,12 +4954,11 @@
       <c r="H58" s="2">
         <v>0</v>
       </c>
-      <c r="I58" s="2"/>
+      <c r="I58" s="2">
+        <v>10</v>
+      </c>
       <c r="J58" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="K58" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="V58" s="1">
         <v>22201</v>
@@ -4991,12 +4966,11 @@
       <c r="Y58" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="Z58" s="3"/>
       <c r="AB58" s="1" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="AC58" s="1">
-        <v>576321111</v>
+        <v>576332222</v>
       </c>
       <c r="AD58" s="1">
         <v>10056</v>
@@ -5008,9 +4982,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="59" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>54</v>
@@ -5019,7 +4993,7 @@
         <v>55</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="E59" s="1">
         <v>495</v>
@@ -5030,12 +5004,11 @@
       <c r="H59" s="2">
         <v>0</v>
       </c>
-      <c r="I59" s="2"/>
+      <c r="I59" s="2">
+        <v>10</v>
+      </c>
       <c r="J59" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="K59" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="V59" s="1">
         <v>22201</v>
@@ -5044,10 +5017,10 @@
         <v>468</v>
       </c>
       <c r="AB59" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AC59" s="1">
-        <v>576332222</v>
+        <v>576343333</v>
       </c>
       <c r="AD59" s="1">
         <v>10056</v>
@@ -5059,9 +5032,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="60" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>54</v>
@@ -5070,7 +5043,7 @@
         <v>55</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="E60" s="1">
         <v>495</v>
@@ -5081,12 +5054,11 @@
       <c r="H60" s="2">
         <v>0</v>
       </c>
-      <c r="I60" s="2"/>
+      <c r="I60" s="2">
+        <v>10</v>
+      </c>
       <c r="J60" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="K60" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="V60" s="1">
         <v>22201</v>
@@ -5095,10 +5067,10 @@
         <v>468</v>
       </c>
       <c r="AB60" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AC60" s="1">
-        <v>576343333</v>
+        <v>576354444</v>
       </c>
       <c r="AD60" s="1">
         <v>10056</v>
@@ -5110,473 +5082,65 @@
         <v>36</v>
       </c>
     </row>
-    <row r="61" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="E61" s="1">
-        <v>495</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H61" s="2">
-        <v>0</v>
-      </c>
-      <c r="I61" s="2"/>
-      <c r="J61" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K61" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="V61" s="1">
-        <v>22201</v>
-      </c>
-      <c r="Y61" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="AB61" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="AC61" s="1">
-        <v>576354444</v>
-      </c>
-      <c r="AD61" s="1">
-        <v>10056</v>
-      </c>
-      <c r="AE61" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="AF61" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="62" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="E62" s="1">
-        <v>495</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H62" s="2">
-        <v>0</v>
-      </c>
-      <c r="I62" s="2">
-        <v>10</v>
-      </c>
-      <c r="J62" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="V62" s="1">
-        <v>22201</v>
-      </c>
-      <c r="Y62" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="Z62" s="3"/>
-      <c r="AB62" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="AC62" s="1">
-        <v>576321111</v>
-      </c>
-      <c r="AD62" s="1">
-        <v>10056</v>
-      </c>
-      <c r="AE62" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="AF62" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="63" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="E63" s="1">
-        <v>495</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H63" s="2">
-        <v>0</v>
-      </c>
-      <c r="I63" s="2">
-        <v>10</v>
-      </c>
-      <c r="J63" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="V63" s="1">
-        <v>22201</v>
-      </c>
-      <c r="Y63" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="AB63" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="AC63" s="1">
-        <v>576332222</v>
-      </c>
-      <c r="AD63" s="1">
-        <v>10056</v>
-      </c>
-      <c r="AE63" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="AF63" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="64" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E64" s="1">
-        <v>495</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H64" s="2">
-        <v>0</v>
-      </c>
-      <c r="I64" s="2">
-        <v>10</v>
-      </c>
-      <c r="J64" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="V64" s="1">
-        <v>22201</v>
-      </c>
-      <c r="Y64" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="AB64" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="AC64" s="1">
-        <v>576343333</v>
-      </c>
-      <c r="AD64" s="1">
-        <v>10056</v>
-      </c>
-      <c r="AE64" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="AF64" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="65" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="E65" s="1">
-        <v>495</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H65" s="2">
-        <v>0</v>
-      </c>
-      <c r="I65" s="2">
-        <v>10</v>
-      </c>
-      <c r="J65" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="V65" s="1">
-        <v>22201</v>
-      </c>
-      <c r="Y65" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="AB65" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="AC65" s="1">
-        <v>576354444</v>
-      </c>
-      <c r="AD65" s="1">
-        <v>10056</v>
-      </c>
-      <c r="AE65" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="AF65" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="66" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="E66" s="1">
-        <v>495</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H66" s="2">
-        <v>0</v>
-      </c>
-      <c r="I66" s="2">
-        <v>10</v>
-      </c>
-      <c r="J66" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K66" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y66" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="AB66" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="AC66" s="1">
-        <v>576332222</v>
-      </c>
-      <c r="AD66" s="1">
-        <v>10048</v>
-      </c>
-      <c r="AE66" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="AF66" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AG66" s="1" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="67" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="E67" s="1">
-        <v>495</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H67" s="2">
-        <v>0</v>
-      </c>
-      <c r="I67" s="2">
-        <v>10</v>
-      </c>
-      <c r="J67" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K67" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y67" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="AB67" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="AC67" s="1">
-        <v>576343333</v>
-      </c>
-      <c r="AD67" s="1">
-        <v>10048</v>
-      </c>
-      <c r="AE67" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="AF67" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AG67" s="1" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="68" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E68" s="1">
-        <v>495</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H68" s="2">
-        <v>0</v>
-      </c>
-      <c r="I68" s="2">
-        <v>10</v>
-      </c>
-      <c r="J68" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K68" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y68" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="AB68" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="AC68" s="1">
-        <v>576354444</v>
-      </c>
-      <c r="AD68" s="1">
-        <v>10048</v>
-      </c>
-      <c r="AE68" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="AF68" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AG68" s="1" t="s">
-        <v>457</v>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="P10" r:id="rId1"/>
-    <hyperlink ref="P12" r:id="rId2"/>
-    <hyperlink ref="P14" r:id="rId3"/>
-    <hyperlink ref="P16" r:id="rId4"/>
+    <hyperlink ref="P10" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="P12" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="P14" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="P16" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId5"/>
+  <headerFooter>
+    <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AF129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6:AF6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="45.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.7265625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.453125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.453125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="11" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="6" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="17.28515625" customWidth="1"/>
-    <col min="30" max="30" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="17.26953125" customWidth="1"/>
+    <col min="30" max="30" width="11.1796875" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="105" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="7.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5674,7 +5238,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>40</v>
       </c>
@@ -5699,7 +5263,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>43</v>
       </c>
@@ -5724,7 +5288,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>46</v>
       </c>
@@ -5749,12 +5313,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="AF5" s="3"/>
     </row>
-    <row r="6" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>65</v>
       </c>
@@ -5807,7 +5371,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>67</v>
       </c>
@@ -5857,7 +5421,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>69</v>
       </c>
@@ -5907,7 +5471,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>71</v>
       </c>
@@ -5957,7 +5521,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>73</v>
       </c>
@@ -6010,7 +5574,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>75</v>
       </c>
@@ -6060,7 +5624,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>77</v>
       </c>
@@ -6110,7 +5674,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>79</v>
       </c>
@@ -6160,7 +5724,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>81</v>
       </c>
@@ -6213,7 +5777,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>86</v>
       </c>
@@ -6263,7 +5827,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>88</v>
       </c>
@@ -6313,7 +5877,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>90</v>
       </c>
@@ -6363,12 +5927,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="AF18" s="3"/>
     </row>
-    <row r="19" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>92</v>
       </c>
@@ -6421,7 +5985,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>96</v>
       </c>
@@ -6469,7 +6033,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>99</v>
       </c>
@@ -6520,7 +6084,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>101</v>
       </c>
@@ -6570,7 +6134,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>104</v>
       </c>
@@ -6621,7 +6185,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>107</v>
       </c>
@@ -6674,7 +6238,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>110</v>
       </c>
@@ -6727,7 +6291,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>113</v>
       </c>
@@ -6777,7 +6341,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>116</v>
       </c>
@@ -6830,7 +6394,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>118</v>
       </c>
@@ -6880,7 +6444,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>120</v>
       </c>
@@ -6930,7 +6494,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>122</v>
       </c>
@@ -6980,7 +6544,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>124</v>
       </c>
@@ -7033,7 +6597,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>126</v>
       </c>
@@ -7083,7 +6647,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>128</v>
       </c>
@@ -7133,7 +6697,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>130</v>
       </c>
@@ -7183,7 +6747,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>132</v>
       </c>
@@ -7236,7 +6800,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>134</v>
       </c>
@@ -7286,7 +6850,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>136</v>
       </c>
@@ -7336,7 +6900,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>138</v>
       </c>
@@ -7386,7 +6950,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>140</v>
       </c>
@@ -7439,7 +7003,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>144</v>
       </c>
@@ -7489,7 +7053,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>146</v>
       </c>
@@ -7539,7 +7103,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>148</v>
       </c>
@@ -7589,7 +7153,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="43" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>150</v>
       </c>
@@ -7642,7 +7206,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="44" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>154</v>
       </c>
@@ -7692,7 +7256,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="45" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>156</v>
       </c>
@@ -7742,7 +7306,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="46" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>158</v>
       </c>
@@ -7792,7 +7356,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="47" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>160</v>
       </c>
@@ -7842,7 +7406,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="48" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>163</v>
       </c>
@@ -7889,7 +7453,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="49" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>165</v>
       </c>
@@ -7936,7 +7500,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="50" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>167</v>
       </c>
@@ -7983,7 +7547,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="51" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>169</v>
       </c>
@@ -8033,7 +7597,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="52" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>172</v>
       </c>
@@ -8080,7 +7644,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="53" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>174</v>
       </c>
@@ -8127,7 +7691,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="54" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
         <v>176</v>
       </c>
@@ -8174,7 +7738,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="55" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>178</v>
       </c>
@@ -8225,7 +7789,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="56" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
         <v>181</v>
       </c>
@@ -8273,7 +7837,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="57" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
         <v>183</v>
       </c>
@@ -8321,7 +7885,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="58" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
         <v>185</v>
       </c>
@@ -8369,7 +7933,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="59" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
         <v>187</v>
       </c>
@@ -8422,7 +7986,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="60" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
         <v>190</v>
       </c>
@@ -8472,7 +8036,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="61" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
         <v>192</v>
       </c>
@@ -8522,7 +8086,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="62" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
         <v>195</v>
       </c>
@@ -8572,7 +8136,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="63" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
         <v>197</v>
       </c>
@@ -8622,7 +8186,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="64" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
         <v>200</v>
       </c>
@@ -8669,7 +8233,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="65" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
         <v>202</v>
       </c>
@@ -8716,7 +8280,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="66" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
         <v>204</v>
       </c>
@@ -8763,7 +8327,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="67" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
         <v>206</v>
       </c>
@@ -8816,7 +8380,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="68" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
         <v>209</v>
       </c>
@@ -8866,7 +8430,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="69" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
         <v>211</v>
       </c>
@@ -8916,7 +8480,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="70" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
         <v>213</v>
       </c>
@@ -8966,7 +8530,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="71" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
         <v>215</v>
       </c>
@@ -9019,7 +8583,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="72" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
         <v>218</v>
       </c>
@@ -9069,7 +8633,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="73" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
         <v>220</v>
       </c>
@@ -9119,7 +8683,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="74" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
         <v>222</v>
       </c>
@@ -9169,7 +8733,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="75" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
         <v>224</v>
       </c>
@@ -9222,7 +8786,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="76" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
         <v>227</v>
       </c>
@@ -9272,7 +8836,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="77" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
         <v>229</v>
       </c>
@@ -9322,7 +8886,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="78" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
         <v>231</v>
       </c>
@@ -9375,7 +8939,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="79" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
         <v>234</v>
       </c>
@@ -9425,7 +8989,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="80" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
         <v>236</v>
       </c>
@@ -9475,7 +9039,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="81" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
         <v>238</v>
       </c>
@@ -9528,7 +9092,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="82" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
         <v>241</v>
       </c>
@@ -9578,7 +9142,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="83" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
         <v>243</v>
       </c>
@@ -9628,7 +9192,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="84" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
         <v>245</v>
       </c>
@@ -9678,7 +9242,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="85" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
         <v>247</v>
       </c>
@@ -9731,7 +9295,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="86" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
         <v>250</v>
       </c>
@@ -9784,7 +9348,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="87" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
         <v>253</v>
       </c>
@@ -9837,7 +9401,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="88" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
         <v>255</v>
       </c>
@@ -9890,7 +9454,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="89" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
         <v>258</v>
       </c>
@@ -9943,7 +9507,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="90" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
         <v>261</v>
       </c>
@@ -9996,7 +9560,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="91" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
         <v>264</v>
       </c>
@@ -10049,7 +9613,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="92" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
         <v>267</v>
       </c>
@@ -10129,7 +9693,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="93" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
         <v>269</v>
       </c>
@@ -10179,7 +9743,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="94" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
         <v>272</v>
       </c>
@@ -10229,7 +9793,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="95" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
         <v>274</v>
       </c>
@@ -10279,7 +9843,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="96" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
         <v>276</v>
       </c>
@@ -10329,7 +9893,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="97" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
         <v>279</v>
       </c>
@@ -10379,7 +9943,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="98" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
         <v>281</v>
       </c>
@@ -10429,7 +9993,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="99" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A99" s="1" t="s">
         <v>283</v>
       </c>
@@ -10479,7 +10043,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="100" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
         <v>286</v>
       </c>
@@ -10529,7 +10093,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="101" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
         <v>288</v>
       </c>
@@ -10579,7 +10143,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="102" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
         <v>290</v>
       </c>
@@ -10629,7 +10193,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="103" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
         <v>293</v>
       </c>
@@ -10679,7 +10243,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="104" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
         <v>295</v>
       </c>
@@ -10729,7 +10293,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="105" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A105" s="1" t="s">
         <v>297</v>
       </c>
@@ -10779,7 +10343,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="106" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A106" s="1" t="s">
         <v>300</v>
       </c>
@@ -10829,7 +10393,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="107" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A107" s="1" t="s">
         <v>302</v>
       </c>
@@ -10879,7 +10443,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="108" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A108" s="1" t="s">
         <v>304</v>
       </c>
@@ -10932,7 +10496,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="109" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A109" s="1" t="s">
         <v>307</v>
       </c>
@@ -10982,7 +10546,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="110" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A110" s="1" t="s">
         <v>309</v>
       </c>
@@ -11032,7 +10596,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="111" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A111" s="1" t="s">
         <v>311</v>
       </c>
@@ -11082,7 +10646,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="112" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A112" s="1" t="s">
         <v>313</v>
       </c>
@@ -11135,7 +10699,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="113" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A113" s="1" t="s">
         <v>316</v>
       </c>
@@ -11185,7 +10749,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="114" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A114" s="1" t="s">
         <v>318</v>
       </c>
@@ -11235,7 +10799,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="115" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A115" s="1" t="s">
         <v>320</v>
       </c>
@@ -11285,7 +10849,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="116" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A116" s="1" t="s">
         <v>313</v>
       </c>
@@ -11338,7 +10902,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="117" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A117" s="1" t="s">
         <v>316</v>
       </c>
@@ -11391,7 +10955,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="118" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A118" s="1" t="s">
         <v>318</v>
       </c>
@@ -11444,7 +11008,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="119" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A119" s="1" t="s">
         <v>320</v>
       </c>
@@ -11497,65 +11061,68 @@
         <v>36</v>
       </c>
     </row>
-    <row r="120" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="121" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="122" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="123" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="124" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="125" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="126" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="127" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="128" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="129" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="120" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="121" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="122" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="123" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="124" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="125" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="126" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="127" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="128" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="129" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AF4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="13.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="6.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.1796875" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.140625" style="1"/>
-    <col min="21" max="21" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.1796875" style="1"/>
+    <col min="21" max="21" width="8.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="5.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.54296875" style="1" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="28.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="16384" width="9.140625" style="1"/>
+    <col min="26" max="26" width="14.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="17.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="16.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="28.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="7.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11653,7 +11220,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>40</v>
       </c>
@@ -11678,7 +11245,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>43</v>
       </c>
@@ -11703,7 +11270,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>46</v>
       </c>
@@ -11731,5 +11298,593 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2585D97B-B6EC-4C51-BFF8-DA4C7FC9BFB1}">
+  <dimension ref="A1:AG9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.1796875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="5.54296875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="6.6328125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="7.36328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" s="1">
+        <v>495</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2">
+        <v>10</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V2" s="1">
+        <v>22201</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="Z2" s="3"/>
+      <c r="AB2" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="AC2" s="1">
+        <v>576321111</v>
+      </c>
+      <c r="AD2" s="1">
+        <v>10003</v>
+      </c>
+      <c r="AE2" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="AF2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" s="1">
+        <v>495</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2">
+        <v>10</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V3" s="1">
+        <v>22201</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="Z3" s="3"/>
+      <c r="AB3" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="AC3" s="1">
+        <v>576321111</v>
+      </c>
+      <c r="AD3" s="1">
+        <v>10003</v>
+      </c>
+      <c r="AE3" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="AF3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" s="1">
+        <v>495</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2">
+        <v>10</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V4" s="1">
+        <v>22201</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="AC4" s="1">
+        <v>576332222</v>
+      </c>
+      <c r="AD4" s="1">
+        <v>10003</v>
+      </c>
+      <c r="AE4" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="AF4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG4" s="1" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" s="1">
+        <v>495</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
+        <v>10</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V5" s="1">
+        <v>22201</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="AB5" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="AC5" s="1">
+        <v>576343333</v>
+      </c>
+      <c r="AD5" s="1">
+        <v>10003</v>
+      </c>
+      <c r="AE5" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="AF5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG5" s="1" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E6" s="1">
+        <v>495</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2">
+        <v>10</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V6" s="1">
+        <v>22201</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="AB6" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="AC6" s="1">
+        <v>576354444</v>
+      </c>
+      <c r="AD6" s="1">
+        <v>10003</v>
+      </c>
+      <c r="AE6" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="AF6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG6" s="1" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E7" s="1">
+        <v>495</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
+        <v>10</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="AB7" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="AC7" s="1">
+        <v>576332222</v>
+      </c>
+      <c r="AD7" s="1">
+        <v>10048</v>
+      </c>
+      <c r="AE7" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="AF7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG7" s="1" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E8" s="1">
+        <v>495</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2">
+        <v>10</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y8" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="AB8" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="AC8" s="1">
+        <v>576343333</v>
+      </c>
+      <c r="AD8" s="1">
+        <v>10048</v>
+      </c>
+      <c r="AE8" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="AF8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG8" s="1" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E9" s="1">
+        <v>495</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2">
+        <v>10</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y9" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="AB9" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="AC9" s="1">
+        <v>576354444</v>
+      </c>
+      <c r="AD9" s="1">
+        <v>10048</v>
+      </c>
+      <c r="AE9" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="AF9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG9" s="1" t="s">
+        <v>457</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>